--- a/Ex_Files_Excel_Managing_and_Analyzing_Data/Exercise Files/Chap 03/03_02/Tables.xlsx
+++ b/Ex_Files_Excel_Managing_and_Analyzing_Data/Exercise Files/Chap 03/03_02/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10728"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emgarcia/_________Course Production/_______2022/Q3 2022/Excel Managing and Analyzing Data (2022)/2_Project/Exercise Files/Chap 03/03_02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgizaykov/Desktop/Data-Science-Projects/Ex_Files_Excel_Managing_and_Analyzing_Data/Exercise Files/Chap 03/03_02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AAA672-DBD5-024C-BF74-23DD0C10B7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29767781-FB2B-2C43-A343-3027D9BA8FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22340" windowHeight="13720" xr2:uid="{009374D2-5DBE-47B7-B3DF-09F9DC4AAC1F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{009374D2-5DBE-47B7-B3DF-09F9DC4AAC1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>City</t>
   </si>
@@ -204,13 +204,22 @@
   </si>
   <si>
     <t>Carey Prichard</t>
+  </si>
+  <si>
+    <t>Count of HS: Barco</t>
+  </si>
+  <si>
+    <t>Count of HS: Gladd</t>
+  </si>
+  <si>
+    <t>HS Count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,16 +249,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -257,11 +280,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -281,11 +372,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -339,6 +471,61 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -483,20 +670,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F48191BF-4B33-4D46-BDA7-54B37FA4C0A0}" name="Gladd" displayName="Gladd" ref="B15:E22" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B15:E22" xr:uid="{F48191BF-4B33-4D46-BDA7-54B37FA4C0A0}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{7B15B939-E7AA-47B5-81F3-53FA92178509}" name="City" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{DA1F4E5F-843A-480B-B69A-C5044AE7DD4E}" name="High Schools" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{C403915C-083A-4263-9567-238156F68C78}" name="Founded" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{70D59F1B-E85C-4B7E-8096-1663524F26A7}" name="City Hall Address" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81428C1F-A4F5-EA4F-8446-81AD5C9C404B}" name="Barco" displayName="Barco" ref="B3:G11" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="B3:G11" xr:uid="{81428C1F-A4F5-EA4F-8446-81AD5C9C404B}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{B201DB96-B1EE-F543-8CDC-EE23B2646845}" name="City" totalsRowLabel="Total" dataDxfId="10" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{11E1AD1C-398F-AC43-9BEA-B8B43D24F726}" name="High Schools" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{955F509B-A176-2045-8B24-F03B2B146D36}" name="Founded" totalsRowFunction="max" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{315B5C6A-F6FE-C145-A1E3-1C9110CE987C}" name="City Hall Address" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{7B206EE0-B9C2-8D42-B975-B39AF0DA67E1}" name="Mayor" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{154EE5AD-BC18-4645-B65B-E615611909D2}" name="HS Count" dataDxfId="0" totalsRowDxfId="2">
+      <calculatedColumnFormula>IF(Barco[[#This Row],[High Schools]]&gt;=$F$1, "X", "")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -776,44 +962,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F390FFF7-5EDB-4C2C-ADFA-93156FAF34DF}">
-  <dimension ref="B1:M32"/>
+  <dimension ref="B1:O32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.1640625" style="1"/>
     <col min="2" max="2" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.83203125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="1"/>
+    <col min="11" max="11" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.83203125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F1" s="3">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
       <c r="F2" s="3"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" ht="22" x14ac:dyDescent="0.25">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="2:15" ht="22" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -829,9 +1025,17 @@
       <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1">
+        <f>SUM(Barco[High Schools])</f>
+        <v>26</v>
+      </c>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -845,9 +1049,16 @@
       <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G4" s="6" t="str">
+        <f>IF(Barco[[#This Row],[High Schools]]&gt;=$F$1, "X", "")</f>
+        <v/>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -863,9 +1074,17 @@
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G5" s="6" t="str">
+        <f>IF(Barco[[#This Row],[High Schools]]&gt;=$F$1, "X", "")</f>
+        <v>X</v>
+      </c>
+      <c r="I5" s="1">
+        <f>SUM(Sheet1!$C$16:$C$22)</f>
+        <v>15</v>
+      </c>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
@@ -878,9 +1097,13 @@
       <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G6" s="6" t="str">
+        <f>IF(Barco[[#This Row],[High Schools]]&gt;=$F$1, "X", "")</f>
+        <v/>
+      </c>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -896,9 +1119,13 @@
       <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G7" s="6" t="str">
+        <f>IF(Barco[[#This Row],[High Schools]]&gt;=$F$1, "X", "")</f>
+        <v/>
+      </c>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
@@ -911,178 +1138,288 @@
       <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G8" s="6" t="str">
+        <f>IF(Barco[[#This Row],[High Schools]]&gt;=$F$1, "X", "")</f>
+        <v/>
+      </c>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1937</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="6" t="str">
+        <f>IF(Barco[[#This Row],[High Schools]]&gt;=$F$1, "X", "")</f>
+        <v/>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1981</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="6" t="str">
+        <f>IF(Barco[[#This Row],[High Schools]]&gt;=$F$1, "X", "")</f>
+        <v>X</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1905</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="6" t="str">
+        <f>IF(Barco[[#This Row],[High Schools]]&gt;=$F$1, "X", "")</f>
+        <v/>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="15" spans="2:13" ht="22" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="15" spans="2:15" ht="22" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="F15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="15">
         <v>2</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="15">
         <v>1877</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="F16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="5">
+        <f>C16</f>
+        <v>2</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="15">
         <v>1</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="15">
         <v>1912</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="F17" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="15">
         <v>2</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="15">
         <v>1966</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="F18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="15">
         <v>4</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="15">
         <v>1895</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="F19" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="15">
         <v>0</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="15">
         <v>1837</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="F20" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="15">
         <v>2</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="1" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="F21" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="19">
         <v>4</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="19">
         <v>1948</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F22" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23" s="8"/>
       <c r="F23"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G23"/>
+      <c r="H23"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E27" s="1"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E32" s="1"/>
     </row>
   </sheetData>
@@ -1099,7 +1436,7 @@
   <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C10" sqref="C10:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
